--- a/src/main/java/com/thinkgem/jeesite/modules/finance/excel/yj1.xlsx
+++ b/src/main/java/com/thinkgem/jeesite/modules/finance/excel/yj1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>租进业务员</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -489,25 +493,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="11" width="20" customWidth="1"/>
-    <col min="12" max="13" width="20.5" customWidth="1"/>
+    <col min="3" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="12" width="20" customWidth="1"/>
+    <col min="13" max="14" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -524,8 +528,9 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -536,42 +541,45 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
